--- a/documents/astronomers_liste_informations.xlsx
+++ b/documents/astronomers_liste_informations.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Personne" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Organisation" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Lieu" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Relation_Personne_Lieu" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t xml:space="preserve">Nom</t>
   </si>
@@ -75,6 +76,18 @@
     <t xml:space="preserve">Allemagne</t>
   </si>
   <si>
+    <t xml:space="preserve">Newton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grantham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angleterre</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type</t>
   </si>
   <si>
@@ -133,6 +146,42 @@
   </si>
   <si>
     <t xml:space="preserve">Quelles coordonnées? Quel type: territoire, région?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type de relation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date début</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giuseppe Maria Asclepi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naissance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enseignement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaac Newton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etudes</t>
   </si>
 </sst>
 </file>
@@ -143,11 +192,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -163,6 +213,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,12 +262,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -233,15 +292,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="E6:E7 E4"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.07"/>
   </cols>
   <sheetData>
@@ -311,6 +370,23 @@
       </c>
       <c r="E4" s="0" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>-93872</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -331,11 +407,11 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6:E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.29"/>
@@ -346,55 +422,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1551</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1660</v>
@@ -403,7 +479,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -419,10 +495,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="E6:E7 E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="51.4"/>
   </cols>
@@ -432,16 +508,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>13.4486</v>
@@ -460,10 +536,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>12.4873</v>
@@ -477,7 +553,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>13.03347</v>
@@ -486,13 +562,98 @@
         <v>50.91119</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.04"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1661</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1665</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
